--- a/Squads/E0/Man City_Wolves_squad.xlsx
+++ b/Squads/E0/Man City_Wolves_squad.xlsx
@@ -90,189 +90,192 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1338</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>2064</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2225</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>725</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>1730</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2509</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>2227</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>1348</t>
-  </si>
-  <si>
-    <t>363</t>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>2237</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>2317</t>
+  </si>
+  <si>
+    <t>2524</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>994</t>
+  </si>
+  <si>
+    <t>1355</t>
   </si>
   <si>
     <t>364</t>
   </si>
   <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>1762</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>449</t>
+    <t>365</t>
   </si>
   <si>
     <t>485</t>
   </si>
   <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>2119</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
     <t>Mario Lemina</t>
   </si>
   <si>
     <t>João Gomes</t>
   </si>
   <si>
+    <t>Nélson Semedo</t>
+  </si>
+  <si>
     <t>Rodri</t>
   </si>
   <si>
-    <t>Nélson Semedo</t>
+    <t>Matheus Cunha</t>
   </si>
   <si>
     <t>Bernardo Silva</t>
   </si>
   <si>
-    <t>Matheus Cunha</t>
+    <t>Rayan Aït-Nouri</t>
   </si>
   <si>
     <t>Craig Dawson</t>
   </si>
   <si>
+    <t>Max Kilman</t>
+  </si>
+  <si>
     <t>Jack Grealish</t>
   </si>
   <si>
-    <t>Rayan Aït-Nouri</t>
-  </si>
-  <si>
-    <t>Max Kilman</t>
+    <t>Toti Gomes</t>
+  </si>
+  <si>
+    <t>Hwang Hee-chan</t>
   </si>
   <si>
     <t>Ederson</t>
   </si>
   <si>
-    <t>Toti Gomes</t>
-  </si>
-  <si>
     <t>Manuel Akanji</t>
   </si>
   <si>
-    <t>Hwang Hee-chan</t>
-  </si>
-  <si>
     <t>Pedro Neto</t>
   </si>
   <si>
+    <t>Pablo Sarabia</t>
+  </si>
+  <si>
     <t>Jeremy Doku</t>
   </si>
   <si>
@@ -282,9 +285,6 @@
     <t>Mateo Kovačić</t>
   </si>
   <si>
-    <t>Pablo Sarabia</t>
-  </si>
-  <si>
     <t>Julián Álvarez</t>
   </si>
   <si>
@@ -297,6 +297,9 @@
     <t>Kyle Walker</t>
   </si>
   <si>
+    <t>Matt Doherty</t>
+  </si>
+  <si>
     <t>Tommy Doyle</t>
   </si>
   <si>
@@ -324,9 +327,6 @@
     <t>Tawanda Chirewa</t>
   </si>
   <si>
-    <t>Matt Doherty</t>
-  </si>
-  <si>
     <t>Nathan Fraser</t>
   </si>
   <si>
@@ -372,24 +372,24 @@
     <t>br BRA</t>
   </si>
   <si>
+    <t>pt POR</t>
+  </si>
+  <si>
     <t>es ESP</t>
   </si>
   <si>
-    <t>pt POR</t>
+    <t>dz ALG</t>
   </si>
   <si>
     <t>eng ENG</t>
   </si>
   <si>
-    <t>dz ALG</t>
+    <t>kr KOR</t>
   </si>
   <si>
     <t>ch SUI</t>
   </si>
   <si>
-    <t>kr KOR</t>
-  </si>
-  <si>
     <t>be BEL</t>
   </si>
   <si>
@@ -399,6 +399,9 @@
     <t>ar ARG</t>
   </si>
   <si>
+    <t>ie IRL</t>
+  </si>
+  <si>
     <t>ml MLI</t>
   </si>
   <si>
@@ -408,9 +411,6 @@
     <t>uy URU</t>
   </si>
   <si>
-    <t>ie IRL</t>
-  </si>
-  <si>
     <t>nl NED</t>
   </si>
   <si>
@@ -426,21 +426,21 @@
     <t>DF,MF</t>
   </si>
   <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
     <t>MF,FW</t>
   </si>
   <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
+    <t>GK</t>
+  </si>
+  <si>
     <t>FW</t>
   </si>
   <si>
-    <t>GK</t>
-  </si>
-  <si>
     <t>Wolves</t>
   </si>
   <si>
@@ -450,142 +450,142 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>30-230</t>
-  </si>
-  <si>
-    <t>23-066</t>
-  </si>
-  <si>
-    <t>27-301</t>
-  </si>
-  <si>
-    <t>30-154</t>
-  </si>
-  <si>
-    <t>29-252</t>
-  </si>
-  <si>
-    <t>24-327</t>
-  </si>
-  <si>
-    <t>33-348</t>
-  </si>
-  <si>
-    <t>28-221</t>
-  </si>
-  <si>
-    <t>22-317</t>
-  </si>
-  <si>
-    <t>26-331</t>
-  </si>
-  <si>
-    <t>30-245</t>
-  </si>
-  <si>
-    <t>25-093</t>
-  </si>
-  <si>
-    <t>28-274</t>
-  </si>
-  <si>
-    <t>28-083</t>
-  </si>
-  <si>
-    <t>24-040</t>
-  </si>
-  <si>
-    <t>21-327</t>
-  </si>
-  <si>
-    <t>22-086</t>
-  </si>
-  <si>
-    <t>29-348</t>
-  </si>
-  <si>
-    <t>31-343</t>
-  </si>
-  <si>
-    <t>24-078</t>
-  </si>
-  <si>
-    <t>32-295</t>
-  </si>
-  <si>
-    <t>29-326</t>
-  </si>
-  <si>
-    <t>33-326</t>
-  </si>
-  <si>
-    <t>22-184</t>
-  </si>
-  <si>
-    <t>21-274</t>
-  </si>
-  <si>
-    <t>22-242</t>
-  </si>
-  <si>
-    <t>23-326</t>
-  </si>
-  <si>
-    <t>23-272</t>
-  </si>
-  <si>
-    <t>19-149</t>
-  </si>
-  <si>
-    <t>21-213</t>
-  </si>
-  <si>
-    <t>25-161</t>
-  </si>
-  <si>
-    <t>20-190</t>
-  </si>
-  <si>
-    <t>32-093</t>
-  </si>
-  <si>
-    <t>19-056</t>
-  </si>
-  <si>
-    <t>31-092</t>
-  </si>
-  <si>
-    <t>29-060</t>
-  </si>
-  <si>
-    <t>20-281</t>
-  </si>
-  <si>
-    <t>26-340</t>
-  </si>
-  <si>
-    <t>23-227</t>
-  </si>
-  <si>
-    <t>29-327</t>
-  </si>
-  <si>
-    <t>25-235</t>
-  </si>
-  <si>
-    <t>31-164</t>
-  </si>
-  <si>
-    <t>25-296</t>
-  </si>
-  <si>
-    <t>30-280</t>
-  </si>
-  <si>
-    <t>30-046</t>
-  </si>
-  <si>
-    <t>18-099</t>
+    <t>30-243</t>
+  </si>
+  <si>
+    <t>23-079</t>
+  </si>
+  <si>
+    <t>30-167</t>
+  </si>
+  <si>
+    <t>27-314</t>
+  </si>
+  <si>
+    <t>24-340</t>
+  </si>
+  <si>
+    <t>29-265</t>
+  </si>
+  <si>
+    <t>22-330</t>
+  </si>
+  <si>
+    <t>33-361</t>
+  </si>
+  <si>
+    <t>26-344</t>
+  </si>
+  <si>
+    <t>28-234</t>
+  </si>
+  <si>
+    <t>25-106</t>
+  </si>
+  <si>
+    <t>28-096</t>
+  </si>
+  <si>
+    <t>30-258</t>
+  </si>
+  <si>
+    <t>28-287</t>
+  </si>
+  <si>
+    <t>24-053</t>
+  </si>
+  <si>
+    <t>31-356</t>
+  </si>
+  <si>
+    <t>21-340</t>
+  </si>
+  <si>
+    <t>22-099</t>
+  </si>
+  <si>
+    <t>29-361</t>
+  </si>
+  <si>
+    <t>24-091</t>
+  </si>
+  <si>
+    <t>32-308</t>
+  </si>
+  <si>
+    <t>29-339</t>
+  </si>
+  <si>
+    <t>33-339</t>
+  </si>
+  <si>
+    <t>32-106</t>
+  </si>
+  <si>
+    <t>22-197</t>
+  </si>
+  <si>
+    <t>21-287</t>
+  </si>
+  <si>
+    <t>22-255</t>
+  </si>
+  <si>
+    <t>23-339</t>
+  </si>
+  <si>
+    <t>23-285</t>
+  </si>
+  <si>
+    <t>19-162</t>
+  </si>
+  <si>
+    <t>21-226</t>
+  </si>
+  <si>
+    <t>25-174</t>
+  </si>
+  <si>
+    <t>20-203</t>
+  </si>
+  <si>
+    <t>19-069</t>
+  </si>
+  <si>
+    <t>31-105</t>
+  </si>
+  <si>
+    <t>29-073</t>
+  </si>
+  <si>
+    <t>20-294</t>
+  </si>
+  <si>
+    <t>26-353</t>
+  </si>
+  <si>
+    <t>23-240</t>
+  </si>
+  <si>
+    <t>29-340</t>
+  </si>
+  <si>
+    <t>25-248</t>
+  </si>
+  <si>
+    <t>31-177</t>
+  </si>
+  <si>
+    <t>25-309</t>
+  </si>
+  <si>
+    <t>30-293</t>
+  </si>
+  <si>
+    <t>30-059</t>
+  </si>
+  <si>
+    <t>18-112</t>
   </si>
   <si>
     <t>1993</t>
@@ -597,28 +597,28 @@
     <t>1996</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
     <t>1990</t>
   </si>
   <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>1992</t>
   </si>
   <si>
     <t>1991</t>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1415.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -866,7 +866,7 @@
         <v>191</v>
       </c>
       <c r="J2" t="n">
-        <v>28.0</v>
+        <v>30.5</v>
       </c>
       <c r="K2" t="n">
         <v>11.0</v>
@@ -878,43 +878,43 @@
         <v>1.0</v>
       </c>
       <c r="N2" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>38.0</v>
       </c>
-      <c r="O2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>32.0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>48.4</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="3">
@@ -922,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>959.0</v>
+        <v>965.0</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -946,10 +946,10 @@
         <v>192</v>
       </c>
       <c r="J3" t="n">
-        <v>23.7</v>
+        <v>26.4</v>
       </c>
       <c r="K3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -958,22 +958,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="R3" t="n">
         <v>18.0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -985,16 +985,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>151.0</v>
+        <v>164.0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>45.9</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="4">
@@ -1002,7 +1002,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2179.0</v>
+        <v>2342.0</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1011,10 +1011,10 @@
         <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
         <v>144</v>
@@ -1023,58 +1023,58 @@
         <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J4" t="n">
-        <v>26.7</v>
+        <v>32.0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.0</v>
+        <v>78.0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0</v>
+        <v>174.0</v>
       </c>
       <c r="X4" t="n">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>70.6</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="5">
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>2330.0</v>
+        <v>2190.0</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -1091,10 +1091,10 @@
         <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
         <v>144</v>
@@ -1103,16 +1103,16 @@
         <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J5" t="n">
-        <v>30.0</v>
+        <v>28.6</v>
       </c>
       <c r="K5" t="n">
         <v>8.0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
@@ -1121,40 +1121,40 @@
         <v>38.0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.0</v>
+        <v>10.0</v>
       </c>
       <c r="R5" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>166.0</v>
+        <v>205.0</v>
       </c>
       <c r="X5" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>46.5</v>
+        <v>69.4</v>
       </c>
     </row>
     <row r="6">
@@ -1162,19 +1162,19 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2349.0</v>
+        <v>599.0</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
         <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>144</v>
@@ -1186,10 +1186,10 @@
         <v>194</v>
       </c>
       <c r="J6" t="n">
-        <v>22.9</v>
+        <v>24.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -1198,25 +1198,25 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.0</v>
+        <v>18.0</v>
       </c>
       <c r="R6" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
@@ -1225,16 +1225,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>82.0</v>
+        <v>103.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.0</v>
+        <v>40.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.0</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="7">
@@ -1242,19 +1242,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>596.0</v>
+        <v>2361.0</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
         <v>144</v>
@@ -1266,7 +1266,7 @@
         <v>195</v>
       </c>
       <c r="J7" t="n">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="K7" t="n">
         <v>7.0</v>
@@ -1278,25 +1278,25 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="O7" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>16.0</v>
       </c>
-      <c r="R7" t="n">
-        <v>13.0</v>
-      </c>
       <c r="S7" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
@@ -1305,16 +1305,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>94.0</v>
+        <v>88.0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.3</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1322,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>632.0</v>
+        <v>43.0</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1331,7 +1331,7 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>142</v>
@@ -1343,10 +1343,10 @@
         <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J8" t="n">
-        <v>24.5</v>
+        <v>23.4</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1358,25 +1358,25 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.0</v>
+        <v>50.0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.0</v>
+        <v>37.0</v>
       </c>
       <c r="R8" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
@@ -1385,16 +1385,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>100.0</v>
+        <v>130.0</v>
       </c>
       <c r="X8" t="n">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>66.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="9">
@@ -1402,19 +1402,19 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>997.0</v>
+        <v>636.0</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
         <v>144</v>
@@ -1423,13 +1423,13 @@
         <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J9" t="n">
-        <v>10.2</v>
+        <v>24.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -1438,22 +1438,22 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="O9" t="n">
-        <v>37.0</v>
+        <v>15.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R9" t="n">
         <v>16.0</v>
       </c>
-      <c r="R9" t="n">
-        <v>6.0</v>
-      </c>
       <c r="S9" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
@@ -1465,16 +1465,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>37.0</v>
+        <v>100.0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.0</v>
+        <v>63.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>42.9</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="10">
@@ -1482,7 +1482,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>42.0</v>
+        <v>1304.0</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1491,7 +1491,7 @@
         <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
         <v>142</v>
@@ -1503,58 +1503,58 @@
         <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J10" t="n">
-        <v>21.2</v>
+        <v>35.0</v>
       </c>
       <c r="K10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.0</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>32.0</v>
       </c>
-      <c r="R10" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>22.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>45.0</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="11">
@@ -1562,19 +1562,19 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>1298.0</v>
+        <v>1003.0</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
@@ -1586,7 +1586,7 @@
         <v>198</v>
       </c>
       <c r="J11" t="n">
-        <v>32.0</v>
+        <v>11.1</v>
       </c>
       <c r="K11" t="n">
         <v>6.0</v>
@@ -1598,43 +1598,43 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>34.0</v>
+        <v>6.0</v>
       </c>
       <c r="O11" t="n">
-        <v>15.0</v>
+        <v>39.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R11" t="n">
         <v>6.0</v>
       </c>
-      <c r="R11" t="n">
-        <v>33.0</v>
-      </c>
       <c r="S11" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>147.0</v>
+        <v>41.0</v>
       </c>
       <c r="X11" t="n">
-        <v>76.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>71.7</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="12">
@@ -1642,19 +1642,19 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>768.0</v>
+        <v>966.0</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
         <v>144</v>
@@ -1663,13 +1663,13 @@
         <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J12" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="K12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -1678,43 +1678,43 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.0</v>
       </c>
-      <c r="O12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.0</v>
+        <v>128.0</v>
       </c>
       <c r="X12" t="n">
-        <v>6.0</v>
+        <v>52.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>100.0</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="13">
@@ -1722,16 +1722,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>960.0</v>
+        <v>1083.0</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>142</v>
@@ -1743,13 +1743,13 @@
         <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J13" t="n">
-        <v>24.8</v>
+        <v>20.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -1758,43 +1758,43 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="O13" t="n">
         <v>31.0</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>9.0</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>25.0</v>
-      </c>
       <c r="T13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>113.0</v>
+        <v>71.0</v>
       </c>
       <c r="X13" t="n">
-        <v>41.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>66.1</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="14">
@@ -1802,16 +1802,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>46.0</v>
+        <v>773.0</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>143</v>
@@ -1823,58 +1823,58 @@
         <v>157</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J14" t="n">
-        <v>22.1</v>
+        <v>28.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="R14" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>118.0</v>
+        <v>46.0</v>
       </c>
       <c r="X14" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1077.0</v>
+        <v>47.0</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
@@ -1891,10 +1891,10 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
@@ -1903,58 +1903,58 @@
         <v>158</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J15" t="n">
-        <v>18.4</v>
+        <v>24.1</v>
       </c>
       <c r="K15" t="n">
         <v>4.0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>25.0</v>
       </c>
-      <c r="O15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>8.0</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>69.0</v>
+        <v>128.0</v>
       </c>
       <c r="X15" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.2</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="16">
@@ -1962,16 +1962,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1830.0</v>
+        <v>1837.0</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
         <v>142</v>
@@ -2042,19 +2042,19 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>717.0</v>
+        <v>2294.0</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>144</v>
@@ -2066,10 +2066,10 @@
         <v>200</v>
       </c>
       <c r="J17" t="n">
-        <v>15.5</v>
+        <v>18.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -2078,25 +2078,25 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="O17" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.0</v>
+        <v>123.0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="S17" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -2105,16 +2105,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>70.0</v>
+        <v>87.0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>50.0</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="18">
@@ -2122,16 +2122,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1044.0</v>
+        <v>721.0</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
         <v>143</v>
@@ -2143,10 +2143,10 @@
         <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J18" t="n">
-        <v>19.9</v>
+        <v>16.2</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2158,25 +2158,25 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.0</v>
+        <v>56.0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="S18" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -2185,16 +2185,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>120.0</v>
+        <v>72.0</v>
       </c>
       <c r="X18" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>55.3</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="19">
@@ -2202,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>1336.0</v>
+        <v>1050.0</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -2211,7 +2211,7 @@
         <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
         <v>143</v>
@@ -2223,10 +2223,10 @@
         <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J19" t="n">
-        <v>12.8</v>
+        <v>21.9</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2238,22 +2238,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
       <c r="S19" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -2265,16 +2265,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>59.0</v>
+        <v>132.0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>57.1</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="20">
@@ -2282,19 +2282,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2282.0</v>
+        <v>1342.0</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
         <v>144</v>
@@ -2303,10 +2303,10 @@
         <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J20" t="n">
-        <v>17.8</v>
+        <v>14.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2318,22 +2318,22 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="O20" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="P20" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.0</v>
+        <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
@@ -2345,16 +2345,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>82.0</v>
+        <v>64.0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>24.0</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="21">
@@ -2362,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -2371,7 +2371,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
         <v>143</v>
@@ -2386,7 +2386,7 @@
         <v>199</v>
       </c>
       <c r="J21" t="n">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.0</v>
@@ -2401,19 +2401,19 @@
         <v>21.0</v>
       </c>
       <c r="O21" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P21" t="n">
         <v>2.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.0</v>
+        <v>137.0</v>
       </c>
       <c r="R21" t="n">
         <v>2.0</v>
       </c>
       <c r="S21" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="T21" t="n">
         <v>1.0</v>
@@ -2425,16 +2425,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="X21" t="n">
         <v>4.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="22">
@@ -2442,7 +2442,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>633.0</v>
+        <v>637.0</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -2466,7 +2466,7 @@
         <v>202</v>
       </c>
       <c r="J22" t="n">
-        <v>8.4</v>
+        <v>10.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.0</v>
@@ -2481,19 +2481,19 @@
         <v>11.0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P22" t="n">
         <v>1.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>109.0</v>
+        <v>116.0</v>
       </c>
       <c r="R22" t="n">
         <v>2.0</v>
       </c>
       <c r="S22" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
@@ -2505,7 +2505,7 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="X22" t="n">
         <v>5.0</v>
@@ -2522,13 +2522,13 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2433.0</v>
+        <v>2445.0</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>136</v>
@@ -2543,7 +2543,7 @@
         <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J23" t="n">
         <v>11.6</v>
@@ -2602,13 +2602,13 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2649.0</v>
+        <v>2664.0</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>139</v>
@@ -2626,7 +2626,7 @@
         <v>196</v>
       </c>
       <c r="J24" t="n">
-        <v>25.1</v>
+        <v>27.0</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2641,19 +2641,19 @@
         <v>23.0</v>
       </c>
       <c r="O24" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="P24" t="n">
         <v>6.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="S24" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -2665,7 +2665,7 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>133.0</v>
+        <v>140.0</v>
       </c>
       <c r="X24" t="n">
         <v>23.0</v>
@@ -2682,16 +2682,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>743.0</v>
+        <v>718.0</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2703,10 +2703,10 @@
         <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J25" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2718,22 +2718,22 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="O25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P25" t="n">
         <v>4.0</v>
       </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="S25" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -2745,16 +2745,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.0</v>
+        <v>58.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="26">
@@ -2762,16 +2762,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2351.0</v>
+        <v>748.0</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2783,10 +2783,10 @@
         <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9</v>
+        <v>13.4</v>
       </c>
       <c r="K26" t="n">
         <v>2.0</v>
@@ -2798,43 +2798,43 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="O26" t="n">
         <v>4.0</v>
       </c>
       <c r="P26" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="S26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>4.0</v>
       </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Z26" t="n">
-        <v>28.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -2842,16 +2842,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>2542.0</v>
+        <v>2363.0</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>
@@ -2863,10 +2863,10 @@
         <v>170</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J27" t="n">
-        <v>5.0</v>
+        <v>2.9</v>
       </c>
       <c r="K27" t="n">
         <v>2.0</v>
@@ -2878,43 +2878,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
         <v>15.0</v>
       </c>
-      <c r="O27" t="n">
+      <c r="X27" t="n">
         <v>2.0</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="28">
@@ -2922,19 +2922,19 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>855.0</v>
+        <v>2555.0</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
         <v>144</v>
@@ -2943,13 +2943,13 @@
         <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J28" t="n">
-        <v>27.2</v>
+        <v>7.3</v>
       </c>
       <c r="K28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -2958,43 +2958,43 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="O28" t="n">
-        <v>48.0</v>
+        <v>4.0</v>
       </c>
       <c r="P28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.0</v>
+        <v>4.0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="S28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>113.0</v>
+        <v>54.0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>28.6</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="29">
@@ -3002,16 +3002,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1047.0</v>
+        <v>861.0</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -3026,7 +3026,7 @@
         <v>199</v>
       </c>
       <c r="J29" t="n">
-        <v>24.2</v>
+        <v>28.0</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -3038,43 +3038,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>15.0</v>
       </c>
-      <c r="O29" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>37.0</v>
-      </c>
       <c r="Z29" t="n">
-        <v>47.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="30">
@@ -3082,16 +3082,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1426.0</v>
+        <v>1053.0</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>143</v>
@@ -3103,10 +3103,10 @@
         <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J30" t="n">
-        <v>8.8</v>
+        <v>24.6</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -3118,25 +3118,25 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="O30" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S30" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -3145,16 +3145,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.0</v>
+        <v>37.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="31">
@@ -3162,19 +3162,19 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>391.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
         <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" t="s">
         <v>144</v>
@@ -3183,10 +3183,10 @@
         <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J31" t="n">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -3198,22 +3198,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R31" t="n">
         <v>4.0</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5.0</v>
-      </c>
       <c r="S31" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3222,19 +3222,19 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="X31" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>41.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -3248,10 +3248,10 @@
         <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
         <v>142</v>
@@ -3263,10 +3263,10 @@
         <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J32" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -3278,43 +3278,43 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="X32" t="n">
         <v>9.0</v>
       </c>
-      <c r="O32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>11.0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="33">
@@ -3322,16 +3322,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>513.0</v>
+        <v>393.0</v>
       </c>
       <c r="C33" t="s">
         <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
         <v>142</v>
@@ -3343,10 +3343,10 @@
         <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4</v>
+        <v>8.0</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -3358,22 +3358,22 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
         <v>2.0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -3385,16 +3385,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="34">
@@ -3402,16 +3402,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>714.0</v>
+        <v>515.0</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
         <v>142</v>
@@ -3423,10 +3423,10 @@
         <v>177</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J34" t="n">
-        <v>9.3</v>
+        <v>1.6</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3438,22 +3438,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="O34" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="P34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q34" t="n">
-        <v>7.0</v>
-      </c>
       <c r="R34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S34" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -3465,16 +3465,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>50.0</v>
+        <v>3.0</v>
       </c>
       <c r="X34" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>58.3</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -3482,16 +3482,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>875.0</v>
+        <v>881.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
         <v>142</v>
@@ -3548,13 +3548,13 @@
         <v>8.0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -3562,16 +3562,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>2225.0</v>
+        <v>2236.0</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
@@ -3586,7 +3586,7 @@
         <v>191</v>
       </c>
       <c r="J36" t="n">
-        <v>28.7</v>
+        <v>31.7</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
@@ -3601,7 +3601,7 @@
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
@@ -3625,7 +3625,7 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="X36" t="n">
         <v>10.0</v>
@@ -3642,7 +3642,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -3663,10 +3663,10 @@
         <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J37" t="n">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -3678,7 +3678,7 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="O37" t="n">
         <v>17.0</v>
@@ -3690,10 +3690,10 @@
         <v>10.0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -3705,16 +3705,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.0</v>
+        <v>117.0</v>
       </c>
       <c r="X37" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="38">
@@ -3722,16 +3722,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>320.0</v>
+        <v>321.0</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
         <v>143</v>
@@ -3746,7 +3746,7 @@
         <v>205</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -3785,7 +3785,7 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X38" t="n">
         <v>1.0</v>
@@ -3802,13 +3802,13 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>678.0</v>
+        <v>682.0</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>139</v>
@@ -3823,7 +3823,7 @@
         <v>182</v>
       </c>
       <c r="I39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J39" t="n">
         <v>25.4</v>
@@ -3882,16 +3882,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>965.0</v>
+        <v>971.0</v>
       </c>
       <c r="C40" t="s">
         <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>143</v>
@@ -3906,7 +3906,7 @@
         <v>199</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -3962,13 +3962,13 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1382.0</v>
+        <v>1389.0</v>
       </c>
       <c r="C41" t="s">
         <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>139</v>
@@ -3983,7 +3983,7 @@
         <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J41" t="n">
         <v>0.1</v>
@@ -4042,13 +4042,13 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1865.0</v>
+        <v>1872.0</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
         <v>135</v>
@@ -4066,7 +4066,7 @@
         <v>204</v>
       </c>
       <c r="J42" t="n">
-        <v>7.0</v>
+        <v>7.2</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -4078,10 +4078,10 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="P42" t="n">
         <v>2.0</v>
@@ -4122,7 +4122,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1932.0</v>
+        <v>1940.0</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
@@ -4131,7 +4131,7 @@
         <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
         <v>143</v>
@@ -4143,10 +4143,10 @@
         <v>186</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -4185,7 +4185,7 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="X43" t="n">
         <v>1.0</v>
@@ -4202,7 +4202,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
@@ -4211,7 +4211,7 @@
         <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
         <v>142</v>
@@ -4282,16 +4282,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>275.0</v>
+        <v>276.0</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
         <v>142</v>
@@ -4362,13 +4362,13 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>477.0</v>
+        <v>478.0</v>
       </c>
       <c r="C46" t="s">
         <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>135</v>
@@ -4383,7 +4383,7 @@
         <v>189</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J46" t="n">
         <v>0.1</v>
@@ -4442,16 +4442,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>515.0</v>
+        <v>517.0</v>
       </c>
       <c r="C47" t="s">
         <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -4634,19 +4634,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
-        <v>1047.0</v>
+        <v>1053.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>143</v>
@@ -4655,13 +4655,13 @@
         <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
         <v>199</v>
       </c>
       <c r="J2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K2" t="n">
         <v>25.0</v>
@@ -4670,19 +4670,19 @@
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="N2" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="O2" t="n">
         <v>5.0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="R2" t="n">
         <v>4.0</v>
@@ -4697,60 +4697,60 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>23.6</v>
+        <v>24.0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA2" t="n">
         <v>18.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="n">
-        <v>855.0</v>
+        <v>861.0</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
@@ -4759,34 +4759,34 @@
         <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
         <v>199</v>
       </c>
       <c r="J3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>27.2</v>
+        <v>28.0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O3" t="n">
         <v>7.0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
@@ -4801,40 +4801,40 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>9.0</v>
+        <v>9.3</v>
       </c>
       <c r="W3" t="n">
-        <v>9.0</v>
+        <v>9.3</v>
       </c>
       <c r="X3" t="n">
-        <v>7.0</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.1</v>
+        <v>16.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.0</v>
+        <v>246.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="AH3" t="n">
         <v>0.33</v>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>596.0</v>
+        <v>599.0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>142</v>
@@ -4863,31 +4863,31 @@
         <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>23.2</v>
+        <v>24.4</v>
       </c>
       <c r="N4" t="n">
         <v>11.0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q4" t="n">
         <v>10.0</v>
@@ -4899,66 +4899,66 @@
         <v>1.0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.7</v>
+        <v>8.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.9</v>
+        <v>8.0</v>
       </c>
       <c r="X4" t="n">
         <v>3.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.0</v>
+        <v>11.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.0</v>
+        <v>122.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>1077.0</v>
+        <v>1083.0</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
         <v>142</v>
@@ -4967,34 +4967,34 @@
         <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
         <v>193</v>
       </c>
       <c r="J5" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="K5" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>20.9</v>
       </c>
       <c r="N5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O5" t="n">
         <v>3.0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="R5" t="n">
         <v>1.0</v>
@@ -5003,49 +5003,49 @@
         <v>1.0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.0</v>
+        <v>105.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -5053,7 +5053,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="n">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -5062,7 +5062,7 @@
         <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>143</v>
@@ -5077,28 +5077,28 @@
         <v>199</v>
       </c>
       <c r="J6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="K6" t="n">
         <v>31.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="N6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O6" t="n">
         <v>8.0</v>
       </c>
       <c r="P6" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="R6" t="n">
         <v>1.0</v>
@@ -5113,57 +5113,57 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="W6" t="n">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="X6" t="n">
         <v>6.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.9</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.0</v>
+        <v>103.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.0</v>
+        <v>176.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AG6" t="n">
         <v>0.55</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>2179.0</v>
+        <v>2190.0</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>135</v>
@@ -5175,22 +5175,22 @@
         <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
         <v>193</v>
       </c>
       <c r="J7" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>26.7</v>
+        <v>28.6</v>
       </c>
       <c r="N7" t="n">
         <v>7.0</v>
@@ -5223,54 +5223,54 @@
         <v>3.8</v>
       </c>
       <c r="X7" t="n">
-        <v>3.0</v>
+        <v>3.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>67.0</v>
+        <v>71.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>314.0</v>
+        <v>332.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>2349.0</v>
+        <v>2361.0</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
         <v>143</v>
@@ -5279,31 +5279,31 @@
         <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J8" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>22.9</v>
+        <v>24.8</v>
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
       </c>
       <c r="O8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q8" t="n">
         <v>6.0</v>
@@ -5327,87 +5327,87 @@
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.7</v>
+        <v>9.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>211.0</v>
+        <v>221.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AE8" t="n">
         <v>0.44</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AG8" t="n">
         <v>0.44</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>1415.0</v>
+        <v>637.0</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
         <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J9" t="n">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="K9" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
+        <v>11.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>911.0</v>
       </c>
       <c r="M9" t="n">
-        <v>28.0</v>
+        <v>10.1</v>
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q9" t="n">
         <v>4.0</v>
@@ -5419,66 +5419,66 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.2</v>
+        <v>10.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.0</v>
+        <v>89.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>42.0</v>
+        <v>100.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>0.79</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.14</v>
+        <v>1.19</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.14</v>
+        <v>1.19</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>2282.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
         <v>142</v>
@@ -5487,206 +5487,206 @@
         <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="J10" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>30.5</v>
       </c>
       <c r="N10" t="n">
         <v>4.0</v>
       </c>
       <c r="O10" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="P10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
         <v>11.0</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="W10" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>6.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>103.0</v>
+        <v>72.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.0</v>
+        <v>47.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>633.0</v>
+        <v>2294.0</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
         <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J11" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="K11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>752.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>8.4</v>
+        <v>18.9</v>
       </c>
       <c r="N11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P11" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="X11" t="n">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.2</v>
+        <v>9.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.0</v>
+        <v>106.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>86.0</v>
+        <v>131.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>717.0</v>
+        <v>721.0</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -5695,22 +5695,22 @@
         <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="K12" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="N12" t="n">
         <v>3.0</v>
@@ -5737,40 +5737,40 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="AA12" t="n">
         <v>56.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>270.0</v>
+        <v>273.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.19</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AF12" t="n">
         <v>0.19</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AH12" t="n">
         <v>0.14</v>
@@ -5778,19 +5778,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>997.0</v>
+        <v>1003.0</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>143</v>
@@ -5799,22 +5799,22 @@
         <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L13" t="n">
-        <v>917.0</v>
+        <v>998.0</v>
       </c>
       <c r="M13" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="N13" t="n">
         <v>3.0</v>
@@ -5850,48 +5850,48 @@
         <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>82.0</v>
+        <v>87.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>136.0</v>
+        <v>146.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>136</v>
@@ -5903,22 +5903,22 @@
         <v>144</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K14" t="n">
         <v>24.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>22.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>22.1</v>
+        <v>24.1</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -5951,7 +5951,7 @@
         <v>0.9</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y14" t="n">
         <v>1.3</v>
@@ -5960,25 +5960,25 @@
         <v>41.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.0</v>
+        <v>128.0</v>
       </c>
       <c r="AB14" t="n">
         <v>34.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AH14" t="n">
         <v>0.04</v>
@@ -5989,7 +5989,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="C15" t="s">
         <v>106</v>
@@ -6010,19 +6010,19 @@
         <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J15" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K15" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -6049,60 +6049,60 @@
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
         <v>1.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Z15" t="n">
         <v>23.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>103.0</v>
+        <v>112.0</v>
       </c>
       <c r="AB15" t="n">
         <v>17.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>1426.0</v>
+        <v>1050.0</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
         <v>143</v>
@@ -6111,31 +6111,31 @@
         <v>144</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J16" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>788.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>8.8</v>
+        <v>21.9</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q16" t="n">
         <v>2.0</v>
@@ -6147,60 +6147,60 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.8</v>
+        <v>3.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.0</v>
+        <v>56.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>31.0</v>
+        <v>119.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>42.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B17" t="n">
-        <v>42.0</v>
+        <v>1433.0</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>122</v>
@@ -6209,37 +6209,37 @@
         <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="J17" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="K17" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
+        <v>8.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>800.0</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>8.9</v>
       </c>
       <c r="N17" t="n">
         <v>2.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q17" t="n">
         <v>2.0</v>
@@ -6251,66 +6251,66 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="X17" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.0</v>
+        <v>1.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>59.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>90.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>84.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>256.0</v>
+        <v>43.0</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
         <v>142</v>
@@ -6319,22 +6319,22 @@
         <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J18" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>806.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>9.0</v>
+        <v>23.4</v>
       </c>
       <c r="N18" t="n">
         <v>2.0</v>
@@ -6355,66 +6355,66 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8</v>
+        <v>2.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>25.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>37.0</v>
+        <v>92.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>43.0</v>
+        <v>87.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n">
-        <v>959.0</v>
+        <v>257.0</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
         <v>142</v>
@@ -6423,22 +6423,22 @@
         <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="J19" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="K19" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>806.0</v>
       </c>
       <c r="M19" t="n">
-        <v>23.7</v>
+        <v>9.0</v>
       </c>
       <c r="N19" t="n">
         <v>2.0</v>
@@ -6459,10 +6459,10 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V19" t="n">
         <v>1.4</v>
@@ -6471,54 +6471,54 @@
         <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>81.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>1298.0</v>
+        <v>965.0</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -6527,31 +6527,31 @@
         <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J20" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="K20" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
       <c r="M20" t="n">
-        <v>32.0</v>
+        <v>26.4</v>
       </c>
       <c r="N20" t="n">
         <v>2.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q20" t="n">
         <v>2.0</v>
@@ -6563,46 +6563,46 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.0</v>
+        <v>2.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>102.0</v>
+        <v>90.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AH20" t="n">
         <v>0.06</v>
@@ -6610,19 +6610,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>1830.0</v>
+        <v>1304.0</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -6631,31 +6631,31 @@
         <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J21" t="n">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="K21" t="n">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>16.7</v>
+        <v>35.0</v>
       </c>
       <c r="N21" t="n">
         <v>2.0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q21" t="n">
         <v>2.0</v>
@@ -6667,103 +6667,103 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.9</v>
+        <v>3.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>97.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>54.0</v>
+        <v>112.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>148.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.54</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.66</v>
+        <v>0.06</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.66</v>
+        <v>0.06</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>320.0</v>
+        <v>1837.0</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
         <v>144</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J22" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="K22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.0</v>
       </c>
-      <c r="L22" t="n">
-        <v>291.0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.0</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="P22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R22" t="n">
         <v>0.0</v>
       </c>
@@ -6771,66 +6771,66 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="X22" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.0</v>
+        <v>97.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>22.0</v>
+        <v>54.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>37.0</v>
+        <v>148.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>1044.0</v>
+        <v>321.0</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -6839,22 +6839,22 @@
         <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J23" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="K23" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>293.0</v>
       </c>
       <c r="M23" t="n">
-        <v>19.9</v>
+        <v>3.3</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -6875,60 +6875,60 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="X23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.0</v>
+        <v>2.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>54.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>110.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>81.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
-        <v>1336.0</v>
+        <v>1342.0</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
@@ -6943,22 +6943,22 @@
         <v>144</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J24" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K24" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -6994,34 +6994,34 @@
         <v>1.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC24" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AH24" t="n">
         <v>0.08</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="25">
@@ -7029,13 +7029,13 @@
         <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>2433.0</v>
+        <v>2445.0</v>
       </c>
       <c r="C25" t="s">
         <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
         <v>136</v>
@@ -7050,7 +7050,7 @@
         <v>166</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" t="n">
         <v>15.0</v>
@@ -7130,16 +7130,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>632.0</v>
+        <v>636.0</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
         <v>139</v>
@@ -7151,7 +7151,7 @@
         <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I26" t="s">
         <v>196</v>
@@ -7234,16 +7234,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>714.0</v>
+        <v>718.0</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>136</v>
@@ -7255,22 +7255,22 @@
         <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J27" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>834.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>9.3</v>
+        <v>11.6</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -7291,7 +7291,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -7303,90 +7303,90 @@
         <v>0.7</v>
       </c>
       <c r="X27" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>47.0</v>
+        <v>62.0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AD27" t="n">
         <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>678.0</v>
+        <v>966.0</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
         <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J28" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="K28" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>25.4</v>
+        <v>27.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R28" t="n">
         <v>0.0</v>
@@ -7395,66 +7395,66 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="W28" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>166.0</v>
+        <v>73.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>768.0</v>
+        <v>682.0</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -7463,22 +7463,22 @@
         <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J29" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="K29" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
       <c r="M29" t="n">
-        <v>26.7</v>
+        <v>25.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -7499,31 +7499,31 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>4.0</v>
+        <v>166.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -7541,21 +7541,21 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>965.0</v>
+        <v>773.0</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
         <v>140</v>
@@ -7567,102 +7567,102 @@
         <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" t="n">
         <v>5.0</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Z30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" t="n">
         <v>4.0</v>
       </c>
-      <c r="AA30" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AB30" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.2</v>
+        <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
-        <v>1382.0</v>
+        <v>971.0</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
         <v>143</v>
@@ -7671,31 +7671,31 @@
         <v>144</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>12.0</v>
+        <v>53.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.0</v>
@@ -7713,60 +7713,60 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
-        <v>1865.0</v>
+        <v>1389.0</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
         <v>143</v>
@@ -7775,31 +7775,31 @@
         <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J32" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" t="n">
-        <v>628.0</v>
+        <v>12.0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.0</v>
+        <v>0.1</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0</v>
@@ -7817,60 +7817,60 @@
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="AF32" t="n">
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="n">
-        <v>1932.0</v>
+        <v>1872.0</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>143</v>
@@ -7879,31 +7879,31 @@
         <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J33" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="L33" t="n">
-        <v>478.0</v>
+        <v>649.0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -7921,60 +7921,60 @@
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B34" t="n">
-        <v>2649.0</v>
+        <v>1940.0</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
         <v>143</v>
@@ -7983,31 +7983,31 @@
         <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J34" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="K34" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
+        <v>4.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>523.0</v>
       </c>
       <c r="M34" t="n">
-        <v>25.1</v>
+        <v>5.8</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0</v>
@@ -8019,170 +8019,170 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.7</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>139.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>151.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AF34" t="n">
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>275.0</v>
+        <v>2664.0</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
         <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J35" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
         <v>4.0</v>
       </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
         <v>2.0</v>
       </c>
-      <c r="L35" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U35" t="n">
         <v>0.0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0</v>
+        <v>2.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>142.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0</v>
+        <v>164.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="AF35" t="n">
         <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B36" t="n">
-        <v>391.0</v>
+        <v>276.0</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
@@ -8191,22 +8191,22 @@
         <v>144</v>
       </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J36" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L36" t="n">
-        <v>562.0</v>
+        <v>293.0</v>
       </c>
       <c r="M36" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -8227,31 +8227,31 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -8269,7 +8269,7 @@
         <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -8283,10 +8283,10 @@
         <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>142</v>
@@ -8298,19 +8298,19 @@
         <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J37" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="K37" t="n">
         <v>6.0</v>
       </c>
       <c r="L37" t="n">
-        <v>584.0</v>
+        <v>658.0</v>
       </c>
       <c r="M37" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8337,25 +8337,25 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
@@ -8373,24 +8373,24 @@
         <v>0.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B38" t="n">
-        <v>477.0</v>
+        <v>393.0</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F38" t="s">
         <v>142</v>
@@ -8399,22 +8399,22 @@
         <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I38" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J38" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.0</v>
+        <v>719.0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1</v>
+        <v>8.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -8435,7 +8435,7 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
@@ -8453,13 +8453,13 @@
         <v>0.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
@@ -8482,16 +8482,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B39" t="n">
-        <v>513.0</v>
+        <v>478.0</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>135</v>
@@ -8503,22 +8503,22 @@
         <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
         <v>5.0</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>40.0</v>
-      </c>
       <c r="M39" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -8539,31 +8539,31 @@
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X39" t="n">
         <v>0.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" t="n">
         <v>0.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
@@ -8581,24 +8581,24 @@
         <v>0.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B40" t="n">
         <v>515.0</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>142</v>
@@ -8607,22 +8607,22 @@
         <v>144</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J40" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L40" t="n">
-        <v>174.0</v>
+        <v>141.0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -8643,66 +8643,66 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
       </c>
       <c r="V40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH40" t="n">
         <v>0.1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B41" t="n">
-        <v>743.0</v>
+        <v>517.0</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
         <v>142</v>
@@ -8711,22 +8711,22 @@
         <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J41" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="K41" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L41" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>174.0</v>
       </c>
       <c r="M41" t="n">
-        <v>11.8</v>
+        <v>1.9</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -8747,31 +8747,31 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA41" t="n">
         <v>2.0</v>
       </c>
-      <c r="U41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>70.0</v>
-      </c>
       <c r="AB41" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
@@ -8789,24 +8789,24 @@
         <v>0.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>875.0</v>
+        <v>748.0</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
         <v>142</v>
@@ -8815,22 +8815,22 @@
         <v>144</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I42" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J42" t="n">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>185.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>2.1</v>
+        <v>13.4</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -8851,31 +8851,31 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U42" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.0</v>
+        <v>78.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="AC42" t="n">
         <v>0.0</v>
@@ -8893,24 +8893,24 @@
         <v>0.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B43" t="n">
-        <v>960.0</v>
+        <v>881.0</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F43" t="s">
         <v>142</v>
@@ -8919,31 +8919,31 @@
         <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J43" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="K43" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L43" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>186.0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.8</v>
+        <v>2.1</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" t="n">
         <v>0.0</v>
@@ -8955,49 +8955,49 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U43" t="n">
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="X43" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>69.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="AF43" t="n">
         <v>0.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="44">
@@ -9005,16 +9005,16 @@
         <v>59</v>
       </c>
       <c r="B44" t="n">
-        <v>2225.0</v>
+        <v>2236.0</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
         <v>142</v>
@@ -9029,16 +9029,16 @@
         <v>191</v>
       </c>
       <c r="J44" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="K44" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="L44" t="e">
         <v>#N/A</v>
       </c>
       <c r="M44" t="n">
-        <v>28.7</v>
+        <v>31.7</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -9080,7 +9080,7 @@
         <v>0.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB44" t="n">
         <v>0.0</v>
@@ -9106,16 +9106,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n">
-        <v>2330.0</v>
+        <v>2342.0</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
         <v>136</v>
@@ -9127,22 +9127,22 @@
         <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
         <v>191</v>
       </c>
       <c r="J45" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K45" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
       </c>
       <c r="M45" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -9163,31 +9163,31 @@
         <v>0.0</v>
       </c>
       <c r="T45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="U45" t="n">
         <v>0.0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="X45" t="n">
         <v>1.7</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.7</v>
+        <v>3.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>117.0</v>
+        <v>125.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>135.0</v>
+        <v>145.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -9205,24 +9205,24 @@
         <v>0.03</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>2351.0</v>
+        <v>2363.0</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s">
         <v>142</v>
@@ -9231,10 +9231,10 @@
         <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J46" t="n">
         <v>8.0</v>
@@ -9314,19 +9314,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>2542.0</v>
+        <v>2555.0</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -9335,22 +9335,22 @@
         <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I47" t="s">
         <v>192</v>
       </c>
       <c r="J47" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="K47" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L47" t="n">
-        <v>449.0</v>
+        <v>656.0</v>
       </c>
       <c r="M47" t="n">
-        <v>5.0</v>
+        <v>7.3</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -9377,25 +9377,25 @@
         <v>0.0</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="X47" t="n">
         <v>0.2</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
@@ -9413,7 +9413,7 @@
         <v>0.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
